--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Tgfb1-Vasn.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Tgfb1-Vasn.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>72.47636390323299</v>
+        <v>96.320746</v>
       </c>
       <c r="H2">
-        <v>72.47636390323299</v>
+        <v>288.962238</v>
       </c>
       <c r="I2">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="J2">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.88800075243863</v>
+        <v>2.935295</v>
       </c>
       <c r="N2">
-        <v>2.88800075243863</v>
+        <v>8.805885</v>
       </c>
       <c r="O2">
-        <v>0.05243569669369586</v>
+        <v>0.0527739323334782</v>
       </c>
       <c r="P2">
-        <v>0.05243569669369586</v>
+        <v>0.0527739323334782</v>
       </c>
       <c r="Q2">
-        <v>209.3117934865529</v>
+        <v>282.72980413007</v>
       </c>
       <c r="R2">
-        <v>209.3117934865529</v>
+        <v>2544.56823717063</v>
       </c>
       <c r="S2">
-        <v>0.01735901300979868</v>
+        <v>0.02010594262185203</v>
       </c>
       <c r="T2">
-        <v>0.01735901300979868</v>
+        <v>0.02010594262185203</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>72.47636390323299</v>
+        <v>96.320746</v>
       </c>
       <c r="H3">
-        <v>72.47636390323299</v>
+        <v>288.962238</v>
       </c>
       <c r="I3">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="J3">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>38.4194030878987</v>
+        <v>38.46708166666667</v>
       </c>
       <c r="N3">
-        <v>38.4194030878987</v>
+        <v>115.401245</v>
       </c>
       <c r="O3">
-        <v>0.6975580479917856</v>
+        <v>0.69160311482936</v>
       </c>
       <c r="P3">
-        <v>0.6975580479917856</v>
+        <v>0.69160311482936</v>
       </c>
       <c r="Q3">
-        <v>2784.49863914354</v>
+        <v>3705.178002576256</v>
       </c>
       <c r="R3">
-        <v>2784.49863914354</v>
+        <v>33346.60202318631</v>
       </c>
       <c r="S3">
-        <v>0.2309289280719138</v>
+        <v>0.2634886567858072</v>
       </c>
       <c r="T3">
-        <v>0.2309289280719138</v>
+        <v>0.2634886567858072</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>72.47636390323299</v>
+        <v>96.320746</v>
       </c>
       <c r="H4">
-        <v>72.47636390323299</v>
+        <v>288.962238</v>
       </c>
       <c r="I4">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="J4">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.53698304522415</v>
+        <v>5.981753333333333</v>
       </c>
       <c r="N4">
-        <v>5.53698304522415</v>
+        <v>17.94526</v>
       </c>
       <c r="O4">
-        <v>0.1005316786404403</v>
+        <v>0.1075464802171131</v>
       </c>
       <c r="P4">
-        <v>0.1005316786404403</v>
+        <v>0.1075464802171131</v>
       </c>
       <c r="Q4">
-        <v>401.3003981116967</v>
+        <v>576.1669434546533</v>
       </c>
       <c r="R4">
-        <v>401.3003981116967</v>
+        <v>5185.502491091879</v>
       </c>
       <c r="S4">
-        <v>0.03328134891790449</v>
+        <v>0.04097332271477725</v>
       </c>
       <c r="T4">
-        <v>0.03328134891790449</v>
+        <v>0.04097332271477725</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>72.47636390323299</v>
+        <v>96.320746</v>
       </c>
       <c r="H5">
-        <v>72.47636390323299</v>
+        <v>288.962238</v>
       </c>
       <c r="I5">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="J5">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.23261093348043</v>
+        <v>8.236038333333333</v>
       </c>
       <c r="N5">
-        <v>8.23261093348043</v>
+        <v>24.708115</v>
       </c>
       <c r="O5">
-        <v>0.1494745766740784</v>
+        <v>0.1480764726200487</v>
       </c>
       <c r="P5">
-        <v>0.1494745766740784</v>
+        <v>0.1480764726200487</v>
       </c>
       <c r="Q5">
-        <v>596.6697058886623</v>
+        <v>793.3013563512633</v>
       </c>
       <c r="R5">
-        <v>596.6697058886623</v>
+        <v>7139.71220716137</v>
       </c>
       <c r="S5">
-        <v>0.04948405923309554</v>
+        <v>0.05641453896844228</v>
       </c>
       <c r="T5">
-        <v>0.04948405923309554</v>
+        <v>0.05641453896844229</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.6297709659693</v>
+        <v>18.46467533333333</v>
       </c>
       <c r="H6">
-        <v>17.6297709659693</v>
+        <v>55.394026</v>
       </c>
       <c r="I6">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="J6">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.88800075243863</v>
+        <v>2.935295</v>
       </c>
       <c r="N6">
-        <v>2.88800075243863</v>
+        <v>8.805885</v>
       </c>
       <c r="O6">
-        <v>0.05243569669369586</v>
+        <v>0.0527739323334782</v>
       </c>
       <c r="P6">
-        <v>0.05243569669369586</v>
+        <v>0.0527739323334782</v>
       </c>
       <c r="Q6">
-        <v>50.91479181504005</v>
+        <v>54.19926918255666</v>
       </c>
       <c r="R6">
-        <v>50.91479181504005</v>
+        <v>487.79342264301</v>
       </c>
       <c r="S6">
-        <v>0.004222554872739424</v>
+        <v>0.003854306763603414</v>
       </c>
       <c r="T6">
-        <v>0.004222554872739424</v>
+        <v>0.003854306763603414</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.6297709659693</v>
+        <v>18.46467533333333</v>
       </c>
       <c r="H7">
-        <v>17.6297709659693</v>
+        <v>55.394026</v>
       </c>
       <c r="I7">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="J7">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>38.4194030878987</v>
+        <v>38.46708166666667</v>
       </c>
       <c r="N7">
-        <v>38.4194030878987</v>
+        <v>115.401245</v>
       </c>
       <c r="O7">
-        <v>0.6975580479917856</v>
+        <v>0.69160311482936</v>
       </c>
       <c r="P7">
-        <v>0.6975580479917856</v>
+        <v>0.69160311482936</v>
       </c>
       <c r="Q7">
-        <v>677.3252770889078</v>
+        <v>710.2821739958188</v>
       </c>
       <c r="R7">
-        <v>677.3252770889078</v>
+        <v>6392.539565962369</v>
       </c>
       <c r="S7">
-        <v>0.0561731286183223</v>
+        <v>0.05051074356884681</v>
       </c>
       <c r="T7">
-        <v>0.0561731286183223</v>
+        <v>0.05051074356884681</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.6297709659693</v>
+        <v>18.46467533333333</v>
       </c>
       <c r="H8">
-        <v>17.6297709659693</v>
+        <v>55.394026</v>
       </c>
       <c r="I8">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="J8">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.53698304522415</v>
+        <v>5.981753333333333</v>
       </c>
       <c r="N8">
-        <v>5.53698304522415</v>
+        <v>17.94526</v>
       </c>
       <c r="O8">
-        <v>0.1005316786404403</v>
+        <v>0.1075464802171131</v>
       </c>
       <c r="P8">
-        <v>0.1005316786404403</v>
+        <v>0.1075464802171131</v>
       </c>
       <c r="Q8">
-        <v>97.615742929757</v>
+        <v>110.4511332240844</v>
       </c>
       <c r="R8">
-        <v>97.615742929757</v>
+        <v>994.0601990167598</v>
       </c>
       <c r="S8">
-        <v>0.008095640113024395</v>
+        <v>0.007854580998119073</v>
       </c>
       <c r="T8">
-        <v>0.008095640113024395</v>
+        <v>0.007854580998119073</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.6297709659693</v>
+        <v>18.46467533333333</v>
       </c>
       <c r="H9">
-        <v>17.6297709659693</v>
+        <v>55.394026</v>
       </c>
       <c r="I9">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="J9">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.23261093348043</v>
+        <v>8.236038333333333</v>
       </c>
       <c r="N9">
-        <v>8.23261093348043</v>
+        <v>24.708115</v>
       </c>
       <c r="O9">
-        <v>0.1494745766740784</v>
+        <v>0.1480764726200487</v>
       </c>
       <c r="P9">
-        <v>0.1494745766740784</v>
+        <v>0.1480764726200487</v>
       </c>
       <c r="Q9">
-        <v>145.1390452091947</v>
+        <v>152.0757738578878</v>
       </c>
       <c r="R9">
-        <v>145.1390452091947</v>
+        <v>1368.68196472099</v>
       </c>
       <c r="S9">
-        <v>0.01203692602336826</v>
+        <v>0.01081466028234424</v>
       </c>
       <c r="T9">
-        <v>0.01203692602336826</v>
+        <v>0.01081466028234425</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>114.377483679854</v>
+        <v>122.909391</v>
       </c>
       <c r="H10">
-        <v>114.377483679854</v>
+        <v>368.728173</v>
       </c>
       <c r="I10">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="J10">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.88800075243863</v>
+        <v>2.935295</v>
       </c>
       <c r="N10">
-        <v>2.88800075243863</v>
+        <v>8.805885</v>
       </c>
       <c r="O10">
-        <v>0.05243569669369586</v>
+        <v>0.0527739323334782</v>
       </c>
       <c r="P10">
-        <v>0.05243569669369586</v>
+        <v>0.0527739323334782</v>
       </c>
       <c r="Q10">
-        <v>330.3222589294555</v>
+        <v>360.7753208553449</v>
       </c>
       <c r="R10">
-        <v>330.3222589294555</v>
+        <v>3246.977887698104</v>
       </c>
       <c r="S10">
-        <v>0.02739486530915846</v>
+        <v>0.02565604260511828</v>
       </c>
       <c r="T10">
-        <v>0.02739486530915846</v>
+        <v>0.02565604260511828</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>114.377483679854</v>
+        <v>122.909391</v>
       </c>
       <c r="H11">
-        <v>114.377483679854</v>
+        <v>368.728173</v>
       </c>
       <c r="I11">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="J11">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>38.4194030878987</v>
+        <v>38.46708166666667</v>
       </c>
       <c r="N11">
-        <v>38.4194030878987</v>
+        <v>115.401245</v>
       </c>
       <c r="O11">
-        <v>0.6975580479917856</v>
+        <v>0.69160311482936</v>
       </c>
       <c r="P11">
-        <v>0.6975580479917856</v>
+        <v>0.69160311482936</v>
       </c>
       <c r="Q11">
-        <v>4394.314649675865</v>
+        <v>4727.965581197264</v>
       </c>
       <c r="R11">
-        <v>4394.314649675865</v>
+        <v>42551.69023077538</v>
       </c>
       <c r="S11">
-        <v>0.3644370147627298</v>
+        <v>0.3362227940069275</v>
       </c>
       <c r="T11">
-        <v>0.3644370147627298</v>
+        <v>0.3362227940069275</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>114.377483679854</v>
+        <v>122.909391</v>
       </c>
       <c r="H12">
-        <v>114.377483679854</v>
+        <v>368.728173</v>
       </c>
       <c r="I12">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="J12">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.53698304522415</v>
+        <v>5.981753333333333</v>
       </c>
       <c r="N12">
-        <v>5.53698304522415</v>
+        <v>17.94526</v>
       </c>
       <c r="O12">
-        <v>0.1005316786404403</v>
+        <v>0.1075464802171131</v>
       </c>
       <c r="P12">
-        <v>0.1005316786404403</v>
+        <v>0.1075464802171131</v>
       </c>
       <c r="Q12">
-        <v>633.3061878907534</v>
+        <v>735.2136593122199</v>
       </c>
       <c r="R12">
-        <v>633.3061878907534</v>
+        <v>6616.922933809979</v>
       </c>
       <c r="S12">
-        <v>0.05252246025729972</v>
+        <v>0.05228371198578277</v>
       </c>
       <c r="T12">
-        <v>0.05252246025729972</v>
+        <v>0.05228371198578277</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>114.377483679854</v>
+        <v>122.909391</v>
       </c>
       <c r="H13">
-        <v>114.377483679854</v>
+        <v>368.728173</v>
       </c>
       <c r="I13">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="J13">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.23261093348043</v>
+        <v>8.236038333333333</v>
       </c>
       <c r="N13">
-        <v>8.23261093348043</v>
+        <v>24.708115</v>
       </c>
       <c r="O13">
-        <v>0.1494745766740784</v>
+        <v>0.1480764726200487</v>
       </c>
       <c r="P13">
-        <v>0.1494745766740784</v>
+        <v>0.1480764726200487</v>
       </c>
       <c r="Q13">
-        <v>941.6253226867454</v>
+        <v>1012.286455802655</v>
       </c>
       <c r="R13">
-        <v>941.6253226867454</v>
+        <v>9110.578102223893</v>
       </c>
       <c r="S13">
-        <v>0.0780925238592694</v>
+        <v>0.07198736426062365</v>
       </c>
       <c r="T13">
-        <v>0.0780925238592694</v>
+        <v>0.07198736426062366</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.4429202435963</v>
+        <v>15.127183</v>
       </c>
       <c r="H14">
-        <v>14.4429202435963</v>
+        <v>45.381549</v>
       </c>
       <c r="I14">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="J14">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.88800075243863</v>
+        <v>2.935295</v>
       </c>
       <c r="N14">
-        <v>2.88800075243863</v>
+        <v>8.805885</v>
       </c>
       <c r="O14">
-        <v>0.05243569669369586</v>
+        <v>0.0527739323334782</v>
       </c>
       <c r="P14">
-        <v>0.05243569669369586</v>
+        <v>0.0527739323334782</v>
       </c>
       <c r="Q14">
-        <v>41.71116453091724</v>
+        <v>44.402744623985</v>
       </c>
       <c r="R14">
-        <v>41.71116453091724</v>
+        <v>399.624701615865</v>
       </c>
       <c r="S14">
-        <v>0.003459263501999293</v>
+        <v>0.003157640342904481</v>
       </c>
       <c r="T14">
-        <v>0.003459263501999293</v>
+        <v>0.003157640342904481</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.4429202435963</v>
+        <v>15.127183</v>
       </c>
       <c r="H15">
-        <v>14.4429202435963</v>
+        <v>45.381549</v>
       </c>
       <c r="I15">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="J15">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>38.4194030878987</v>
+        <v>38.46708166666667</v>
       </c>
       <c r="N15">
-        <v>38.4194030878987</v>
+        <v>115.401245</v>
       </c>
       <c r="O15">
-        <v>0.6975580479917856</v>
+        <v>0.69160311482936</v>
       </c>
       <c r="P15">
-        <v>0.6975580479917856</v>
+        <v>0.69160311482936</v>
       </c>
       <c r="Q15">
-        <v>554.8883746050983</v>
+        <v>581.8985838476117</v>
       </c>
       <c r="R15">
-        <v>554.8883746050983</v>
+        <v>5237.087254628505</v>
       </c>
       <c r="S15">
-        <v>0.04601897653881969</v>
+        <v>0.04138092046777853</v>
       </c>
       <c r="T15">
-        <v>0.04601897653881969</v>
+        <v>0.04138092046777853</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.4429202435963</v>
+        <v>15.127183</v>
       </c>
       <c r="H16">
-        <v>14.4429202435963</v>
+        <v>45.381549</v>
       </c>
       <c r="I16">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="J16">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.53698304522415</v>
+        <v>5.981753333333333</v>
       </c>
       <c r="N16">
-        <v>5.53698304522415</v>
+        <v>17.94526</v>
       </c>
       <c r="O16">
-        <v>0.1005316786404403</v>
+        <v>0.1075464802171131</v>
       </c>
       <c r="P16">
-        <v>0.1005316786404403</v>
+        <v>0.1075464802171131</v>
       </c>
       <c r="Q16">
-        <v>79.97020451231737</v>
+        <v>90.48707733419333</v>
       </c>
       <c r="R16">
-        <v>79.97020451231737</v>
+        <v>814.3836960077399</v>
       </c>
       <c r="S16">
-        <v>0.006632229352211647</v>
+        <v>0.006434864518433985</v>
       </c>
       <c r="T16">
-        <v>0.006632229352211647</v>
+        <v>0.006434864518433985</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.4429202435963</v>
+        <v>15.127183</v>
       </c>
       <c r="H17">
-        <v>14.4429202435963</v>
+        <v>45.381549</v>
       </c>
       <c r="I17">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="J17">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.23261093348043</v>
+        <v>8.236038333333333</v>
       </c>
       <c r="N17">
-        <v>8.23261093348043</v>
+        <v>24.708115</v>
       </c>
       <c r="O17">
-        <v>0.1494745766740784</v>
+        <v>0.1480764726200487</v>
       </c>
       <c r="P17">
-        <v>0.1494745766740784</v>
+        <v>0.1480764726200487</v>
       </c>
       <c r="Q17">
-        <v>118.9029431088167</v>
+        <v>124.5880590633483</v>
       </c>
       <c r="R17">
-        <v>118.9029431088167</v>
+        <v>1121.292531570135</v>
       </c>
       <c r="S17">
-        <v>0.009861067558345227</v>
+        <v>0.008859909108638523</v>
       </c>
       <c r="T17">
-        <v>0.009861067558345227</v>
+        <v>0.008859909108638524</v>
       </c>
     </row>
   </sheetData>
